--- a/inst/extdata/toyFiles/FROC/frocCr.xlsx
+++ b/inst/extdata/toyFiles/FROC/frocCr.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/FROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129D2783-BDC5-C443-A0FF-68E360B9AEA4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073C4058-8A0B-DF48-B354-2138C2C9AB50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19300" yWindow="460" windowWidth="16820" windowHeight="15140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17800" yWindow="840" windowWidth="10000" windowHeight="10180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="15">
   <si>
     <t>CaseID</t>
   </si>
@@ -575,18 +575,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="8.83203125" style="1"/>
+    <col min="1" max="8" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -602,12 +602,12 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J1">
+      <c r="M1">
         <f ca="1">RAND()-0.5</f>
-        <v>-6.3264645441609257E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-0.45973824552994569</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>6</v>
       </c>
@@ -623,16 +623,16 @@
       <c r="E2" s="1">
         <v>5.28</v>
       </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G9" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+E2, 2)</f>
-        <v>5.38</v>
-      </c>
       <c r="J2">
-        <f t="shared" ref="J2:J34" ca="1" si="1">RAND()-0.5</f>
-        <v>-0.33033792880042412</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+        <f t="shared" ref="J2:J5" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+E2, 2)</f>
+        <v>5.12</v>
+      </c>
+      <c r="M2">
+        <f t="shared" ref="M2:M13" ca="1" si="1">RAND()-0.5</f>
+        <v>0.25038812937575172</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -640,24 +640,24 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="1">
-        <v>4.6500000000000004</v>
-      </c>
-      <c r="G3">
+        <v>3.01</v>
+      </c>
+      <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.87</v>
-      </c>
-      <c r="J3">
+        <v>3.04</v>
+      </c>
+      <c r="M3">
         <f t="shared" ca="1" si="1"/>
-        <v>-3.8138144590795786E-3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+        <v>0.41306313114430682</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -665,120 +665,124 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1">
-        <v>3.01</v>
-      </c>
-      <c r="G4">
+        <v>5.25</v>
+      </c>
+      <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.22</v>
-      </c>
-      <c r="J4">
+        <v>5.25</v>
+      </c>
+      <c r="M4">
         <f t="shared" ca="1" si="1"/>
-        <v>2.9859965776515951E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-1.4010036101867573E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>6</v>
+      <c r="B5" s="3">
+        <v>1</v>
       </c>
       <c r="C5" s="1">
+        <v>74</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4.26</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="0"/>
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ca="1" si="1"/>
+        <v>-0.12076498648263934</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
         <v>72</v>
       </c>
-      <c r="D5" s="1">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5.98</v>
-      </c>
-      <c r="G5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.91</v>
-      </c>
-      <c r="J5">
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4.92</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ref="J6:J11" ca="1" si="2">ROUND(0.5*(RAND()-0.5)+E6, 2)</f>
+        <v>4.84</v>
+      </c>
+      <c r="M6">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.47884280432234605</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>73</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-0.26508723804020007</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>5.25</v>
-      </c>
-      <c r="G7">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.47</v>
+        <v>5.1100000000000003</v>
       </c>
       <c r="J7">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.91</v>
+      </c>
+      <c r="M7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11254296726124335</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-0.17050365933854317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>4.26</v>
-      </c>
-      <c r="G8">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.17</v>
+        <v>4.95</v>
       </c>
       <c r="J8">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.71</v>
+      </c>
+      <c r="M8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45974238357665043</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+        <v>6.4114295283714817E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -786,621 +790,96 @@
         <v>6</v>
       </c>
       <c r="C9" s="1">
+        <v>74</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5.3</v>
+      </c>
+      <c r="J9">
+        <f t="shared" ca="1" si="2"/>
+        <v>5.15</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.48655285235193513</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
         <v>70</v>
       </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5.14</v>
-      </c>
-      <c r="G9">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.01</v>
-      </c>
-      <c r="J9">
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="2"/>
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="M10">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.40404562986725379</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
-        <v>71</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3.31</v>
-      </c>
-      <c r="G10">
-        <f t="shared" ref="G10:G32" ca="1" si="2">ROUND(0.5*(RAND()-0.5)+E10, 2)</f>
-        <v>3.46</v>
-      </c>
-      <c r="J10">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.35478998313831622</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+        <v>-4.9210449131392942E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>4.92</v>
-      </c>
-      <c r="G11">
+        <v>4.03</v>
+      </c>
+      <c r="J11">
         <f t="shared" ca="1" si="2"/>
-        <v>5.08</v>
-      </c>
-      <c r="J11">
+        <v>3.95</v>
+      </c>
+      <c r="M11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45233956624365645</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1">
-        <v>72</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>5.1100000000000003</v>
-      </c>
-      <c r="G12">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.91</v>
-      </c>
-      <c r="J12">
+        <v>0.26290842139001458</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11140219682634434</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="1">
-        <v>72</v>
-      </c>
-      <c r="D13" s="1">
-        <v>3</v>
-      </c>
-      <c r="E13" s="1">
-        <v>4.63</v>
-      </c>
-      <c r="G13">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.67</v>
-      </c>
-      <c r="J13">
+        <v>0.35878859238182803</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13">
         <f t="shared" ca="1" si="1"/>
-        <v>8.9977590963838505E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="1">
-        <v>73</v>
-      </c>
-      <c r="D14" s="1">
-        <v>1</v>
-      </c>
-      <c r="E14" s="1">
-        <v>4.95</v>
-      </c>
-      <c r="G14">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.72</v>
-      </c>
-      <c r="J14">
-        <f t="shared" ca="1" si="1"/>
-        <v>-1.8062588379187727E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" s="1">
-        <v>74</v>
-      </c>
-      <c r="D15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>5.3</v>
-      </c>
-      <c r="G15">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.25</v>
-      </c>
-      <c r="J15">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.20806805113915028</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C16" s="1">
-        <v>70</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1</v>
-      </c>
-      <c r="E16" s="1">
-        <v>4.66</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.58</v>
-      </c>
-      <c r="J16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.43008071313443019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" s="1">
-        <v>71</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>4.03</v>
-      </c>
-      <c r="G17">
-        <f t="shared" ca="1" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="J17">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.89482538380501E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="1">
-        <v>72</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>5.22</v>
-      </c>
-      <c r="G18">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.15</v>
-      </c>
-      <c r="J18">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.9360170269234014E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C19" s="1">
-        <v>73</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="G19">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.74</v>
-      </c>
-      <c r="J19">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.48915243921765039</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="1">
-        <v>74</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>5.27</v>
-      </c>
-      <c r="G20">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.46</v>
-      </c>
-      <c r="J20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.26058852592208992</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1">
-        <v>70</v>
-      </c>
-      <c r="D21" s="1">
-        <v>1</v>
-      </c>
-      <c r="E21" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="G21">
-        <f t="shared" ca="1" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="J21">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.6116964249248023E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1">
-        <v>71</v>
-      </c>
-      <c r="D22" s="1">
-        <v>1</v>
-      </c>
-      <c r="E22" s="1">
-        <v>3.27</v>
-      </c>
-      <c r="G22">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.51</v>
-      </c>
-      <c r="J22">
-        <f t="shared" ca="1" si="1"/>
-        <v>-8.0567153625920596E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1">
-        <v>72</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1</v>
-      </c>
-      <c r="E23" s="1">
-        <v>4.6100000000000003</v>
-      </c>
-      <c r="G23">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.49</v>
-      </c>
-      <c r="J23">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.7490684684458357E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C24" s="1">
-        <v>73</v>
-      </c>
-      <c r="D24" s="1">
-        <v>1</v>
-      </c>
-      <c r="E24" s="1">
-        <v>5.18</v>
-      </c>
-      <c r="G24">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="J24">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.31887203610264958</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="1">
-        <v>74</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>4.72</v>
-      </c>
-      <c r="G25">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.88</v>
-      </c>
-      <c r="J25">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.22451557804814204</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="1">
-        <v>70</v>
-      </c>
-      <c r="D26" s="1">
-        <v>1</v>
-      </c>
-      <c r="E26" s="1">
-        <v>4.7699999999999996</v>
-      </c>
-      <c r="G26">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.7</v>
-      </c>
-      <c r="J26">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.3023028044032422</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="1">
-        <v>71</v>
-      </c>
-      <c r="D27" s="1">
-        <v>1</v>
-      </c>
-      <c r="E27" s="1">
-        <v>3.19</v>
-      </c>
-      <c r="G27">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.28</v>
-      </c>
-      <c r="J27">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.27301535726907722</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C28" s="1">
-        <v>72</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
-        <v>5.2</v>
-      </c>
-      <c r="G28">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.2</v>
-      </c>
-      <c r="J28">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.3875787324133112</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C29" s="1">
-        <v>73</v>
-      </c>
-      <c r="D29" s="1">
-        <v>1</v>
-      </c>
-      <c r="E29" s="1">
-        <v>5.39</v>
-      </c>
-      <c r="G29">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.29</v>
-      </c>
-      <c r="J29">
-        <f t="shared" ca="1" si="1"/>
-        <v>-3.6756744257272378E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C30" s="1">
-        <v>74</v>
-      </c>
-      <c r="D30" s="1">
-        <v>1</v>
-      </c>
-      <c r="E30" s="1">
-        <v>5.01</v>
-      </c>
-      <c r="G30">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J30">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.29206742803550179</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C31" s="1">
-        <v>70</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1</v>
-      </c>
-      <c r="E31" s="1">
-        <v>4.87</v>
-      </c>
-      <c r="G31">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.74</v>
-      </c>
-      <c r="J31">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.29514837352454304</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32" s="1">
-        <v>71</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
-        <v>1.94</v>
-      </c>
-      <c r="G32">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.82</v>
-      </c>
-      <c r="J32">
-        <f t="shared" ca="1" si="1"/>
-        <v>-2.6780340222088972E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J33">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.932246716730464E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J34">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.49885634191195394</v>
-      </c>
-    </row>
-    <row r="36" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J36">
-        <f ca="1">AVERAGE(J1:J34)</f>
-        <v>-2.7326234375296014E-2</v>
+        <v>-0.10974250562214405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15">
+        <f ca="1">AVERAGE(M1:M13)</f>
+        <v>4.531195660965192E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="A7:B32 A2:B5" numberStoredAsText="1"/>
+    <ignoredError sqref="A4:B4 A2:B2 A3:B3 A7:B7 A9:B9 A6 A8 A11:B11 A10 A5" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1412,18 +891,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F23"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="8.83203125" style="1"/>
+    <col min="1" max="8" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1437,7 +916,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1448,14 +927,14 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>1.02</v>
-      </c>
-      <c r="F2">
-        <f ca="1">ROUND(0.5*(RAND()-0.5)+D2, 2)</f>
-        <v>0.86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.17</v>
+      </c>
+      <c r="J2">
+        <f t="shared" ref="J2:J11" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+D2, 2)</f>
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1463,381 +942,161 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" s="1">
-        <v>2.17</v>
-      </c>
-      <c r="F3">
-        <f t="shared" ref="F3:F23" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+D3, 2)</f>
-        <v>2.23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.21</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="1">
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="F4">
+      <c r="D5" s="1">
+        <v>1.96</v>
+      </c>
+      <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0299999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="1">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1.9</v>
-      </c>
-      <c r="F5">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2.13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>2.21</v>
-      </c>
-      <c r="F6">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1">
-        <v>2</v>
-      </c>
-      <c r="D8" s="1">
-        <v>2.21</v>
-      </c>
-      <c r="F8">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="F9">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>2.14</v>
-      </c>
-      <c r="F10">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="1">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>1.98</v>
-      </c>
-      <c r="F11">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="1">
-        <v>3</v>
-      </c>
-      <c r="D12" s="1">
-        <v>1.95</v>
-      </c>
-      <c r="F12">
+        <v>2.08</v>
+      </c>
+      <c r="J6">
         <f t="shared" ca="1" si="0"/>
         <v>2.09</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="1" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="F13">
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.01</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1" t="s">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D14" s="1">
-        <v>2.89</v>
-      </c>
-      <c r="F14">
+      <c r="D9" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="1">
-        <v>3</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="F15">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>70</v>
+      </c>
+      <c r="D10" s="1">
+        <v>3.18</v>
+      </c>
+      <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="1">
-        <v>3</v>
-      </c>
-      <c r="D16" s="1">
-        <v>1.85</v>
-      </c>
-      <c r="F16">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1">
+        <v>74</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.9</v>
+      </c>
+      <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0699999999999998</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="1">
-        <v>3</v>
-      </c>
-      <c r="D17" s="1">
-        <v>3.22</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="0"/>
-        <v>3.32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="1">
-        <v>1</v>
-      </c>
-      <c r="D18" s="1">
-        <v>3.01</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C19" s="1">
-        <v>2</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1.96</v>
-      </c>
-      <c r="F19">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C20" s="1">
-        <v>3</v>
-      </c>
-      <c r="D20" s="1">
-        <v>2.08</v>
-      </c>
-      <c r="F20">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C21" s="1">
-        <v>1</v>
-      </c>
-      <c r="D21" s="1">
-        <v>2.2400000000000002</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.1800000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="1">
-        <v>2</v>
-      </c>
-      <c r="D22" s="1">
-        <v>4.01</v>
-      </c>
-      <c r="F22">
-        <f t="shared" ca="1" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" s="1">
-        <v>3</v>
-      </c>
-      <c r="D23" s="1">
-        <v>1.86</v>
-      </c>
-      <c r="F23">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.85</v>
+        <v>2.02</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <ignoredErrors>
-    <ignoredError sqref="A2:B23" numberStoredAsText="1"/>
+    <ignoredError sqref="A9:B9 A2:B7" numberStoredAsText="1"/>
   </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -1852,7 +1111,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11:C12"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/inst/extdata/toyFiles/FROC/frocCr.xlsx
+++ b/inst/extdata/toyFiles/FROC/frocCr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/FROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{073C4058-8A0B-DF48-B354-2138C2C9AB50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF44C65B-D5AD-4947-908E-EF233D6A9ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17800" yWindow="840" windowWidth="10000" windowHeight="10180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10240" yWindow="1580" windowWidth="10440" windowHeight="10080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="15">
   <si>
     <t>CaseID</t>
   </si>
@@ -575,15 +575,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M15"/>
+  <dimension ref="A1:M32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="8.83203125" style="1"/>
+    <col min="1" max="5" width="8.83203125" style="1"/>
+    <col min="8" max="8" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -604,7 +605,7 @@
       </c>
       <c r="M1">
         <f ca="1">RAND()-0.5</f>
-        <v>-0.45973824552994569</v>
+        <v>0.17768985068844001</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -625,11 +626,11 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J5" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+E2, 2)</f>
-        <v>5.12</v>
+        <v>5.44</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M13" ca="1" si="1">RAND()-0.5</f>
-        <v>0.25038812937575172</v>
+        <v>-0.10035787544376451</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -640,21 +641,21 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1">
-        <v>3.01</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>3.04</v>
+        <v>4.49</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="1"/>
-        <v>0.41306313114430682</v>
+        <v>-0.48484709397500392</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -665,121 +666,121 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>5.25</v>
+        <v>3.01</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.25</v>
+        <v>3.24</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="1"/>
-        <v>-1.4010036101867573E-2</v>
+        <v>-0.28975086299640562</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="3">
-        <v>1</v>
+      <c r="B5" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D5" s="1">
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>4.26</v>
+        <v>5.98</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.3099999999999996</v>
+        <v>5.8</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.12076498648263934</v>
+        <v>-0.42283670643649851</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>4.92</v>
+        <v>5</v>
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J11" ca="1" si="2">ROUND(0.5*(RAND()-0.5)+E6, 2)</f>
-        <v>4.84</v>
+        <v>4.93</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.26508723804020007</v>
+        <v>0.40867610039731206</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D7" s="1">
         <v>2</v>
       </c>
       <c r="E7" s="1">
-        <v>5.1100000000000003</v>
+        <v>5.25</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="2"/>
-        <v>4.91</v>
+        <v>5.07</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.17050365933854317</v>
+        <v>-0.44435837865125882</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C8" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1">
         <v>1</v>
       </c>
       <c r="E8" s="1">
-        <v>4.95</v>
+        <v>4.26</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="2"/>
-        <v>4.71</v>
+        <v>4.5</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="1"/>
-        <v>6.4114295283714817E-3</v>
+        <v>0.44656345856954338</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -790,97 +791,445 @@
         <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D9" s="1">
         <v>1</v>
       </c>
       <c r="E9" s="1">
-        <v>5.3</v>
+        <v>5.14</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="2"/>
-        <v>5.15</v>
+        <v>5.12</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.48655285235193513</v>
+        <v>-0.27848389194209111</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3">
-        <v>1</v>
+        <v>7</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D10" s="1">
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>4.66</v>
+        <v>3.31</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="2"/>
-        <v>4.8499999999999996</v>
+        <v>3.55</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="1"/>
-        <v>-4.9210449131392942E-2</v>
+        <v>0.27471014607839794</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D11" s="1">
         <v>1</v>
       </c>
       <c r="E11" s="1">
-        <v>4.03</v>
+        <v>4.92</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="2"/>
-        <v>3.95</v>
+        <v>5.17</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.26290842139001458</v>
+        <v>0.27600677018030984</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>72</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>5.1100000000000003</v>
+      </c>
       <c r="M12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.35878859238182803</v>
+        <v>-0.44441385042137904</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="1">
+        <v>72</v>
+      </c>
+      <c r="D13" s="1">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1">
+        <v>4.63</v>
+      </c>
       <c r="M13">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.10974250562214405</v>
+        <v>0.29362669028344091</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="1">
+        <v>73</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1</v>
+      </c>
+      <c r="E14" s="1">
+        <v>4.95</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>74</v>
+      </c>
+      <c r="D15" s="1">
+        <v>1</v>
+      </c>
+      <c r="E15" s="1">
+        <v>5.3</v>
+      </c>
       <c r="M15">
         <f ca="1">AVERAGE(M1:M13)</f>
-        <v>4.531195660965192E-2</v>
+        <v>-4.5213511051458259E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="1">
+        <v>70</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>4.66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>71</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>4.03</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="1">
+        <v>72</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>5.22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="1">
+        <v>73</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4.9400000000000004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="1">
+        <v>74</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5.27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>70</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>71</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>72</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4.6100000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="1">
+        <v>73</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1">
+        <v>5.18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="1">
+        <v>74</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>70</v>
+      </c>
+      <c r="D26" s="1">
+        <v>1</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4.7699999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="1">
+        <v>71</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1</v>
+      </c>
+      <c r="E27" s="1">
+        <v>3.19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="1">
+        <v>72</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="1">
+        <v>73</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1">
+        <v>5.39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="1">
+        <v>74</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>5.01</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="1">
+        <v>70</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>4.87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="1">
+        <v>71</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1.94</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <ignoredErrors>
-    <ignoredError sqref="A4:B4 A2:B2 A3:B3 A7:B7 A9:B9 A6 A8 A11:B11 A10 A5" numberStoredAsText="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -891,15 +1240,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="8" width="8.83203125" style="1"/>
+    <col min="1" max="4" width="8.83203125" style="1"/>
+    <col min="7" max="8" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -927,11 +1277,11 @@
         <v>1</v>
       </c>
       <c r="D2" s="1">
-        <v>2.17</v>
+        <v>1.02</v>
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J11" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+D2, 2)</f>
-        <v>2.13</v>
+        <v>1.0900000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -942,50 +1292,50 @@
         <v>6</v>
       </c>
       <c r="C3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>2.2200000000000002</v>
+        <v>2.17</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.38</v>
+        <v>2.13</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" s="1">
-        <v>2.21</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.19</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" s="1">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.13</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -993,111 +1343,276 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>2.08</v>
+        <v>2.21</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.09</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" s="1">
-        <v>2.2400000000000002</v>
+        <v>3.1</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.41</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="1">
         <v>2</v>
       </c>
-      <c r="B8" s="3">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1</v>
-      </c>
       <c r="D8" s="1">
-        <v>1.78</v>
+        <v>2.21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="1">
-        <v>4.01</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>3.78</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="1">
-        <v>1</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C10" s="1">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="D10" s="1">
-        <v>3.18</v>
+        <v>2.14</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>3.31</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="1">
+      <c r="A11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="1">
         <v>2</v>
       </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1">
-        <v>74</v>
-      </c>
       <c r="D11" s="1">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>2.02</v>
+        <v>1.94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>3</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>2</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2.89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15" s="1">
+        <v>74</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="1">
+        <v>73</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.85</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="1">
+        <v>3</v>
+      </c>
+      <c r="D17" s="1">
+        <v>3.22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="1">
+        <v>1</v>
+      </c>
+      <c r="D18" s="1">
+        <v>3.01</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="1">
+        <v>71</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="1">
+        <v>71</v>
+      </c>
+      <c r="D22" s="1">
+        <v>4.01</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23" s="1">
+        <v>72</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <ignoredErrors>
-    <ignoredError sqref="A9:B9 A2:B7" numberStoredAsText="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/inst/extdata/toyFiles/FROC/frocCr.xlsx
+++ b/inst/extdata/toyFiles/FROC/frocCr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/FROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF44C65B-D5AD-4947-908E-EF233D6A9ACB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2122F3-5748-8D48-A060-DDA22A85D8C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="1580" windowWidth="10440" windowHeight="10080" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10240" yWindow="1580" windowWidth="10440" windowHeight="10080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="3" r:id="rId1"/>
@@ -77,7 +77,7 @@
     <t>FROC</t>
   </si>
   <si>
-    <t>crossed</t>
+    <t>FCTRL</t>
   </si>
 </sst>
 </file>
@@ -605,7 +605,7 @@
       </c>
       <c r="M1">
         <f ca="1">RAND()-0.5</f>
-        <v>0.17768985068844001</v>
+        <v>-7.4284264603758032E-2</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -626,11 +626,11 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J5" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+E2, 2)</f>
-        <v>5.44</v>
+        <v>5.43</v>
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M13" ca="1" si="1">RAND()-0.5</f>
-        <v>-0.10035787544376451</v>
+        <v>-0.27703185820383069</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -651,11 +651,11 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>4.49</v>
+        <v>4.42</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.48484709397500392</v>
+        <v>0.43240228417963222</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -676,11 +676,11 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>3.24</v>
+        <v>2.81</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.28975086299640562</v>
+        <v>0.14411874742129283</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -701,11 +701,11 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8</v>
+        <v>5.91</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.42283670643649851</v>
+        <v>-0.46628532314475368</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -726,11 +726,11 @@
       </c>
       <c r="J6">
         <f t="shared" ref="J6:J11" ca="1" si="2">ROUND(0.5*(RAND()-0.5)+E6, 2)</f>
-        <v>4.93</v>
+        <v>5.23</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.40867610039731206</v>
+        <v>0.38380519328051121</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -751,11 +751,11 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="2"/>
-        <v>5.07</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.44435837865125882</v>
+        <v>0.47174446545487003</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -776,11 +776,11 @@
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="2"/>
-        <v>4.5</v>
+        <v>4.45</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.44656345856954338</v>
+        <v>0.30159556722591929</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -801,11 +801,11 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="2"/>
-        <v>5.12</v>
+        <v>5.17</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.27848389194209111</v>
+        <v>-0.31966497298936492</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -826,11 +826,11 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="2"/>
-        <v>3.55</v>
+        <v>3.54</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27471014607839794</v>
+        <v>2.2753527730743905E-2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
@@ -851,11 +851,11 @@
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="2"/>
-        <v>5.17</v>
+        <v>4.99</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27600677018030984</v>
+        <v>-0.36108437380218006</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -876,7 +876,7 @@
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="1"/>
-        <v>-0.44441385042137904</v>
+        <v>-0.14434672067527388</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -897,7 +897,7 @@
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29362669028344091</v>
+        <v>-0.15824620789289889</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
@@ -935,7 +935,7 @@
       </c>
       <c r="M15">
         <f ca="1">AVERAGE(M1:M13)</f>
-        <v>-4.5213511051458259E-2</v>
+        <v>-3.424918155314666E-3</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
@@ -1242,7 +1242,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="J2">
         <f t="shared" ref="J2:J11" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+D2, 2)</f>
-        <v>1.0900000000000001</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>2.13</v>
+        <v>2.34</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1317,7 +1317,7 @@
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1335,7 +1335,7 @@
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.79</v>
+        <v>2.14</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1353,7 +1353,7 @@
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2799999999999998</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>3.25</v>
+        <v>2.99</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>1.84</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>1.98</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1625,8 +1625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/inst/extdata/toyFiles/FROC/frocCr.xlsx
+++ b/inst/extdata/toyFiles/FROC/frocCr.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10713"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/FROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC2122F3-5748-8D48-A060-DDA22A85D8C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDEDE6E-CF7E-2444-A49C-C4E71AEA4D55}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10240" yWindow="1580" windowWidth="10440" windowHeight="10080" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18740" yWindow="2460" windowWidth="10000" windowHeight="9980" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TP" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -177,17 +179,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -575,19 +572,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M32"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="5" width="8.83203125" style="1"/>
+    <col min="6" max="7" width="8.83203125" style="2"/>
     <col min="8" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -603,16 +602,12 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1">
-        <f ca="1">RAND()-0.5</f>
-        <v>-7.4284264603758032E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1">
@@ -624,20 +619,12 @@
       <c r="E2" s="1">
         <v>5.28</v>
       </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J5" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+E2, 2)</f>
-        <v>5.43</v>
-      </c>
-      <c r="M2">
-        <f t="shared" ref="M2:M13" ca="1" si="1">RAND()-0.5</f>
-        <v>-0.27703185820383069</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="1">
@@ -649,20 +636,12 @@
       <c r="E3" s="1">
         <v>4.6500000000000004</v>
       </c>
-      <c r="J3">
-        <f t="shared" ca="1" si="0"/>
-        <v>4.42</v>
-      </c>
-      <c r="M3">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.43240228417963222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="1">
@@ -674,20 +653,12 @@
       <c r="E4" s="1">
         <v>3.01</v>
       </c>
-      <c r="J4">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.81</v>
-      </c>
-      <c r="M4">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.14411874742129283</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="2" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="1">
@@ -699,20 +670,12 @@
       <c r="E5" s="1">
         <v>5.98</v>
       </c>
-      <c r="J5">
-        <f t="shared" ca="1" si="0"/>
-        <v>5.91</v>
-      </c>
-      <c r="M5">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.46628532314475368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="1">
@@ -724,20 +687,12 @@
       <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="J6">
-        <f t="shared" ref="J6:J11" ca="1" si="2">ROUND(0.5*(RAND()-0.5)+E6, 2)</f>
-        <v>5.23</v>
-      </c>
-      <c r="M6">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.38380519328051121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="1">
@@ -749,20 +704,12 @@
       <c r="E7" s="1">
         <v>5.25</v>
       </c>
-      <c r="J7">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="M7">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.47174446545487003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1">
@@ -774,20 +721,12 @@
       <c r="E8" s="1">
         <v>4.26</v>
       </c>
-      <c r="J8">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.45</v>
-      </c>
-      <c r="M8">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.30159556722591929</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="1">
@@ -799,20 +738,12 @@
       <c r="E9" s="1">
         <v>5.14</v>
       </c>
-      <c r="J9">
-        <f t="shared" ca="1" si="2"/>
-        <v>5.17</v>
-      </c>
-      <c r="M9">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.31966497298936492</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="2" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="1">
@@ -824,20 +755,12 @@
       <c r="E10" s="1">
         <v>3.31</v>
       </c>
-      <c r="J10">
-        <f t="shared" ca="1" si="2"/>
-        <v>3.54</v>
-      </c>
-      <c r="M10">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.2753527730743905E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1">
@@ -849,20 +772,12 @@
       <c r="E11" s="1">
         <v>4.92</v>
       </c>
-      <c r="J11">
-        <f t="shared" ca="1" si="2"/>
-        <v>4.99</v>
-      </c>
-      <c r="M11">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.36108437380218006</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="1">
@@ -874,16 +789,12 @@
       <c r="E12" s="1">
         <v>5.1100000000000003</v>
       </c>
-      <c r="M12">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.14434672067527388</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C13" s="1">
@@ -895,16 +806,12 @@
       <c r="E13" s="1">
         <v>4.63</v>
       </c>
-      <c r="M13">
-        <f t="shared" ca="1" si="1"/>
-        <v>-0.15824620789289889</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1">
@@ -917,11 +824,11 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="1">
@@ -933,16 +840,12 @@
       <c r="E15" s="1">
         <v>5.3</v>
       </c>
-      <c r="M15">
-        <f ca="1">AVERAGE(M1:M13)</f>
-        <v>-3.424918155314666E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="2" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C16" s="1">
@@ -956,10 +859,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C17" s="1">
@@ -973,10 +876,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C18" s="1">
@@ -990,10 +893,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C19" s="1">
@@ -1007,10 +910,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C20" s="1">
@@ -1024,10 +927,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C21" s="1">
@@ -1041,10 +944,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C22" s="1">
@@ -1058,10 +961,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C23" s="1">
@@ -1075,10 +978,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="1">
@@ -1092,10 +995,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C25" s="1">
@@ -1109,10 +1012,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C26" s="1">
@@ -1126,10 +1029,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="1">
@@ -1143,10 +1046,10 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="1">
@@ -1160,10 +1063,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C29" s="1">
@@ -1177,10 +1080,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="1">
@@ -1194,10 +1097,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
+      <c r="A31" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="1">
@@ -1211,10 +1114,10 @@
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="1">
@@ -1230,6 +1133,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:B18 A19:B32" numberStoredAsText="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1240,19 +1146,21 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="4" width="8.83203125" style="1"/>
+    <col min="5" max="6" width="8.83203125" style="2"/>
     <col min="7" max="8" width="8.83203125" style="1"/>
+    <col min="9" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -1266,7 +1174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1279,12 +1187,8 @@
       <c r="D2" s="1">
         <v>1.02</v>
       </c>
-      <c r="J2">
-        <f t="shared" ref="J2:J11" ca="1" si="0">ROUND(0.5*(RAND()-0.5)+D2, 2)</f>
-        <v>0.82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -1297,12 +1201,8 @@
       <c r="D3" s="1">
         <v>2.17</v>
       </c>
-      <c r="J3">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1315,12 +1215,8 @@
       <c r="D4" s="1">
         <v>2.2200000000000002</v>
       </c>
-      <c r="J4">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.98</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1333,12 +1229,8 @@
       <c r="D5" s="1">
         <v>1.9</v>
       </c>
-      <c r="J5">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -1351,12 +1243,8 @@
       <c r="D6" s="1">
         <v>2.21</v>
       </c>
-      <c r="J6">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.04</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1369,12 +1257,8 @@
       <c r="D7" s="1">
         <v>3.1</v>
       </c>
-      <c r="J7">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -1388,7 +1272,7 @@
         <v>2.21</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -1401,12 +1285,8 @@
       <c r="D9" s="1">
         <v>2.0699999999999998</v>
       </c>
-      <c r="J9">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.08</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
@@ -1419,12 +1299,8 @@
       <c r="D10" s="1">
         <v>2.14</v>
       </c>
-      <c r="J10">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1437,12 +1313,8 @@
       <c r="D11" s="1">
         <v>1.98</v>
       </c>
-      <c r="J11">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>8</v>
       </c>
@@ -1456,7 +1328,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>6</v>
       </c>
@@ -1470,7 +1342,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>6</v>
       </c>
@@ -1484,7 +1356,7 @@
         <v>2.89</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1498,7 +1370,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>6</v>
       </c>
@@ -1613,6 +1485,9 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A23 B2:B23" numberStoredAsText="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1623,10 +1498,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1635,338 +1510,248 @@
     <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="8.83203125" style="1"/>
+    <col min="7" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
         <v>0</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" s="1">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F4"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
+      <c r="A5" s="1">
         <v>70</v>
       </c>
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
         <v>0.3</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F5"/>
+      <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
+      <c r="A6" s="1">
         <v>70</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <v>0.7</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F6"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
+      <c r="A7" s="1">
         <v>71</v>
       </c>
-      <c r="B7" s="2">
-        <v>1</v>
-      </c>
-      <c r="C7" s="2">
-        <v>1</v>
-      </c>
-      <c r="D7" s="2" t="s">
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F7"/>
+      <c r="F7" s="2"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
+      <c r="A8" s="1">
         <v>72</v>
       </c>
-      <c r="B8" s="2">
-        <v>1</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F8"/>
+      <c r="F8" s="2"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
+      <c r="A9" s="1">
         <v>72</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F9"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>72</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F10"/>
+      <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>73</v>
       </c>
-      <c r="B11" s="2">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
         <v>0.1</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F11"/>
+      <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
+      <c r="A12" s="1">
         <v>73</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="1">
         <v>2</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <v>0.9</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F12"/>
+      <c r="F12" s="2"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="A13" s="1">
         <v>74</v>
       </c>
-      <c r="B13" s="2">
-        <v>1</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
+      <c r="F13" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
